--- a/uploads/archivo_empleados.xlsx
+++ b/uploads/archivo_empleados.xlsx
@@ -1,13 +1,8 @@
 
 <file path=xl/workbook.xml><?xml version="1.0" encoding="utf-8"?>
-<workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" mc:Ignorable="x15">
-  <fileVersion appName="xl" lastEdited="6" lowestEdited="4" rupBuild="14420"/>
+<workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships">
+  <fileVersion appName="xl" lastEdited="4" lowestEdited="4" rupBuild="4505"/>
   <workbookPr defaultThemeVersion="124226"/>
-  <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
-    <mc:Choice Requires="x15">
-      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\Gerson\Desktop\"/>
-    </mc:Choice>
-  </mc:AlternateContent>
   <bookViews>
     <workbookView xWindow="240" yWindow="75" windowWidth="16455" windowHeight="7935"/>
   </bookViews>
@@ -21,7 +16,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="69" uniqueCount="63">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="54" uniqueCount="52">
   <si>
     <t>nelson</t>
   </si>
@@ -177,46 +172,13 @@
   </si>
   <si>
     <t>prestación de servicios</t>
-  </si>
-  <si>
-    <t>gerson</t>
-  </si>
-  <si>
-    <t>cll 30 30 30</t>
-  </si>
-  <si>
-    <t>javierbr12@hotmail.com</t>
-  </si>
-  <si>
-    <t>obra labor</t>
-  </si>
-  <si>
-    <t>Porvenir</t>
-  </si>
-  <si>
-    <t>PRUEBA GERSON</t>
-  </si>
-  <si>
-    <t>PRUEBA</t>
-  </si>
-  <si>
-    <t>medellin</t>
-  </si>
-  <si>
-    <t>centro de costo</t>
-  </si>
-  <si>
-    <t>desarrollador</t>
-  </si>
-  <si>
-    <t>YISED</t>
   </si>
 </sst>
 </file>
 
 <file path=xl/styles.xml><?xml version="1.0" encoding="utf-8"?>
-<styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
-  <fonts count="2" x14ac:knownFonts="1">
+<styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main">
+  <fonts count="2">
     <font>
       <sz val="11"/>
       <color theme="1"/>
@@ -283,10 +245,10 @@
     <xf numFmtId="0" fontId="1" fillId="0" borderId="0" xfId="1" applyAlignment="1" applyProtection="1"/>
     <xf numFmtId="0" fontId="0" fillId="2" borderId="0" xfId="0" applyFill="1"/>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyFont="1"/>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="1" xfId="0" applyBorder="1"/>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="1" xfId="0" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center"/>
     </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="1" xfId="0" applyBorder="1"/>
     <xf numFmtId="0" fontId="0" fillId="2" borderId="1" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center"/>
     </xf>
@@ -297,14 +259,6 @@
   </cellStyles>
   <dxfs count="0"/>
   <tableStyles count="0" defaultTableStyle="TableStyleMedium9" defaultPivotStyle="PivotStyleLight16"/>
-  <extLst>
-    <ext xmlns:x14="http://schemas.microsoft.com/office/spreadsheetml/2009/9/main" uri="{EB79DEF2-80B8-43e5-95BD-54CBDDF9020C}">
-      <x14:slicerStyles defaultSlicerStyle="SlicerStyleLight1"/>
-    </ext>
-    <ext xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" uri="{9260A510-F301-46a8-8635-F512D64BE5F5}">
-      <x15:timelineStyles defaultTimelineStyle="TimeSlicerStyleLight1"/>
-    </ext>
-  </extLst>
 </styleSheet>
 </file>
 
@@ -351,7 +305,7 @@
     </a:clrScheme>
     <a:fontScheme name="Office">
       <a:majorFont>
-        <a:latin typeface="Cambria" panose="020F0302020204030204"/>
+        <a:latin typeface="Cambria"/>
         <a:ea typeface=""/>
         <a:cs typeface=""/>
         <a:font script="Jpan" typeface="ＭＳ Ｐゴシック"/>
@@ -383,10 +337,9 @@
         <a:font script="Mong" typeface="Mongolian Baiti"/>
         <a:font script="Viet" typeface="Times New Roman"/>
         <a:font script="Uigh" typeface="Microsoft Uighur"/>
-        <a:font script="Geor" typeface="Sylfaen"/>
       </a:majorFont>
       <a:minorFont>
-        <a:latin typeface="Calibri" panose="020F0502020204030204"/>
+        <a:latin typeface="Calibri"/>
         <a:ea typeface=""/>
         <a:cs typeface=""/>
         <a:font script="Jpan" typeface="ＭＳ Ｐゴシック"/>
@@ -418,7 +371,6 @@
         <a:font script="Mong" typeface="Mongolian Baiti"/>
         <a:font script="Viet" typeface="Arial"/>
         <a:font script="Uigh" typeface="Microsoft Uighur"/>
-        <a:font script="Geor" typeface="Sylfaen"/>
       </a:minorFont>
     </a:fontScheme>
     <a:fmtScheme name="Office">
@@ -594,14 +546,14 @@
 </file>
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
-  <dimension ref="A1:Z11"/>
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships">
+  <dimension ref="A1:Z10"/>
   <sheetViews>
-    <sheetView tabSelected="1" topLeftCell="R1" workbookViewId="0">
-      <selection activeCell="AA13" sqref="AA13"/>
+    <sheetView tabSelected="1" workbookViewId="0">
+      <selection activeCell="I19" sqref="I19"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr baseColWidth="10" defaultColWidth="26.42578125" defaultRowHeight="15" x14ac:dyDescent="0.25"/>
+  <sheetFormatPr baseColWidth="10" defaultColWidth="26.42578125" defaultRowHeight="15"/>
   <cols>
     <col min="1" max="1" width="12" customWidth="1"/>
     <col min="2" max="2" width="8" bestFit="1" customWidth="1"/>
@@ -624,96 +576,96 @@
     <col min="19" max="19" width="18.42578125" customWidth="1"/>
     <col min="20" max="20" width="19" customWidth="1"/>
     <col min="21" max="21" width="17.140625" customWidth="1"/>
-    <col min="22" max="22" width="19" customWidth="1"/>
-    <col min="23" max="23" width="23.140625" customWidth="1"/>
+    <col min="22" max="22" width="6.5703125" bestFit="1" customWidth="1"/>
+    <col min="23" max="23" width="15.7109375" customWidth="1"/>
     <col min="24" max="24" width="22.7109375" customWidth="1"/>
     <col min="25" max="25" width="20.28515625" customWidth="1"/>
     <col min="26" max="26" width="13.42578125" bestFit="1" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:26" x14ac:dyDescent="0.25">
-      <c r="A1" s="6" t="s">
+    <row r="1" spans="1:26">
+      <c r="A1" s="5" t="s">
         <v>15</v>
       </c>
-      <c r="B1" s="6"/>
-      <c r="D1" s="6" t="s">
+      <c r="B1" s="5"/>
+      <c r="D1" s="5" t="s">
         <v>19</v>
       </c>
-      <c r="E1" s="6"/>
+      <c r="E1" s="5"/>
       <c r="W1" s="7" t="s">
         <v>29</v>
       </c>
       <c r="X1" s="7"/>
     </row>
-    <row r="2" spans="1:26" x14ac:dyDescent="0.25">
-      <c r="A2" s="5">
+    <row r="2" spans="1:26">
+      <c r="A2" s="6">
         <v>1</v>
       </c>
-      <c r="B2" s="5" t="s">
+      <c r="B2" s="6" t="s">
         <v>16</v>
       </c>
-      <c r="D2" s="5">
+      <c r="D2" s="6">
         <v>1</v>
       </c>
-      <c r="E2" s="5" t="s">
+      <c r="E2" s="6" t="s">
         <v>20</v>
       </c>
-      <c r="W2" s="5">
+      <c r="W2" s="6">
         <v>1</v>
       </c>
-      <c r="X2" s="5" t="s">
+      <c r="X2" s="6" t="s">
         <v>30</v>
       </c>
     </row>
-    <row r="3" spans="1:26" x14ac:dyDescent="0.25">
-      <c r="A3" s="5">
+    <row r="3" spans="1:26">
+      <c r="A3" s="6">
         <v>2</v>
       </c>
-      <c r="B3" s="5" t="s">
+      <c r="B3" s="6" t="s">
         <v>17</v>
       </c>
-      <c r="D3" s="5">
+      <c r="D3" s="6">
         <v>2</v>
       </c>
-      <c r="E3" s="5" t="s">
+      <c r="E3" s="6" t="s">
         <v>21</v>
       </c>
-      <c r="W3" s="5">
+      <c r="W3" s="6">
         <v>2</v>
       </c>
-      <c r="X3" s="5" t="s">
+      <c r="X3" s="6" t="s">
         <v>31</v>
       </c>
     </row>
-    <row r="4" spans="1:26" x14ac:dyDescent="0.25">
-      <c r="D4" s="5">
+    <row r="4" spans="1:26">
+      <c r="D4" s="6">
         <v>3</v>
       </c>
-      <c r="E4" s="5" t="s">
+      <c r="E4" s="6" t="s">
         <v>22</v>
       </c>
-      <c r="W4" s="5">
+      <c r="W4" s="6">
         <v>3</v>
       </c>
-      <c r="X4" s="5" t="s">
+      <c r="X4" s="6" t="s">
         <v>32</v>
       </c>
     </row>
-    <row r="5" spans="1:26" x14ac:dyDescent="0.25">
-      <c r="D5" s="5">
+    <row r="5" spans="1:26">
+      <c r="D5" s="6">
         <v>4</v>
       </c>
-      <c r="E5" s="5" t="s">
+      <c r="E5" s="6" t="s">
         <v>23</v>
       </c>
-      <c r="W5" s="5">
+      <c r="W5" s="6">
         <v>4</v>
       </c>
-      <c r="X5" s="5" t="s">
+      <c r="X5" s="6" t="s">
         <v>33</v>
       </c>
     </row>
-    <row r="9" spans="1:26" x14ac:dyDescent="0.25">
+    <row r="9" spans="1:26">
       <c r="A9" s="4" t="s">
         <v>4</v>
       </c>
@@ -793,7 +745,7 @@
         <v>36</v>
       </c>
     </row>
-    <row r="10" spans="1:26" x14ac:dyDescent="0.25">
+    <row r="10" spans="1:26">
       <c r="A10">
         <v>1111</v>
       </c>
@@ -871,83 +823,6 @@
       </c>
       <c r="Z10" t="s">
         <v>41</v>
-      </c>
-    </row>
-    <row r="11" spans="1:26" x14ac:dyDescent="0.25">
-      <c r="A11">
-        <v>1033741569</v>
-      </c>
-      <c r="B11" t="s">
-        <v>52</v>
-      </c>
-      <c r="C11" t="s">
-        <v>1</v>
-      </c>
-      <c r="D11">
-        <v>1</v>
-      </c>
-      <c r="E11" s="1">
-        <v>33584</v>
-      </c>
-      <c r="F11">
-        <v>1.8</v>
-      </c>
-      <c r="G11">
-        <v>80</v>
-      </c>
-      <c r="H11">
-        <v>1234567</v>
-      </c>
-      <c r="I11" t="s">
-        <v>53</v>
-      </c>
-      <c r="J11">
-        <v>5674567</v>
-      </c>
-      <c r="K11" s="2" t="s">
-        <v>54</v>
-      </c>
-      <c r="L11" t="s">
-        <v>20</v>
-      </c>
-      <c r="M11" t="s">
-        <v>55</v>
-      </c>
-      <c r="N11" s="1">
-        <v>42005</v>
-      </c>
-      <c r="P11" t="s">
-        <v>56</v>
-      </c>
-      <c r="Q11" s="1">
-        <v>42005</v>
-      </c>
-      <c r="R11" t="s">
-        <v>57</v>
-      </c>
-      <c r="S11" t="s">
-        <v>58</v>
-      </c>
-      <c r="T11" t="s">
-        <v>59</v>
-      </c>
-      <c r="U11" t="s">
-        <v>60</v>
-      </c>
-      <c r="V11" t="s">
-        <v>61</v>
-      </c>
-      <c r="W11" t="s">
-        <v>44</v>
-      </c>
-      <c r="X11">
-        <v>1</v>
-      </c>
-      <c r="Y11" t="s">
-        <v>56</v>
-      </c>
-      <c r="Z11" t="s">
-        <v>62</v>
       </c>
     </row>
   </sheetData>
@@ -958,32 +833,31 @@
   </mergeCells>
   <hyperlinks>
     <hyperlink ref="K10" r:id="rId1"/>
-    <hyperlink ref="K11" r:id="rId2"/>
   </hyperlinks>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
-  <pageSetup paperSize="9" orientation="portrait" horizontalDpi="300" verticalDpi="300" r:id="rId3"/>
+  <pageSetup paperSize="9" orientation="portrait" horizontalDpi="300" verticalDpi="300" r:id="rId2"/>
 </worksheet>
 </file>
 
 <file path=xl/worksheets/sheet2.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships">
   <dimension ref="A1"/>
   <sheetViews>
     <sheetView workbookViewId="0"/>
   </sheetViews>
-  <sheetFormatPr baseColWidth="10" defaultRowHeight="15" x14ac:dyDescent="0.25"/>
+  <sheetFormatPr baseColWidth="10" defaultRowHeight="15"/>
   <sheetData/>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
 </worksheet>
 </file>
 
 <file path=xl/worksheets/sheet3.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships">
   <dimension ref="A1"/>
   <sheetViews>
     <sheetView workbookViewId="0"/>
   </sheetViews>
-  <sheetFormatPr baseColWidth="10" defaultRowHeight="15" x14ac:dyDescent="0.25"/>
+  <sheetFormatPr baseColWidth="10" defaultRowHeight="15"/>
   <sheetData/>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
 </worksheet>
